--- a/biology/Microbiologie/Protolitonotidae/Protolitonotidae.xlsx
+++ b/biology/Microbiologie/Protolitonotidae/Protolitonotidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Protolitonotidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Pleurostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Protolitonotus, dérivé du grec προτο / proto, « premier », et litonotus, par allusion à Litonotus, genre type de la famille des Litonotidae, en référence au fait que, selon Lei Wu (d) et al. le genre Protolitonotus, qu’il créèrent et décrivirent en 2016 « est sœur de tous les autres Pleurostomatides et représente donc une lignée indépendante et une famille distincte, les Protolitonotidae (nouvelle famille) »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Protolitonotus, dérivé du grec προτο / proto, « premier », et litonotus, par allusion à Litonotus, genre type de la famille des Litonotidae, en référence au fait que, selon Lei Wu (d) et al. le genre Protolitonotus, qu’il créèrent et décrivirent en 2016 « est sœur de tous les autres Pleurostomatides et représente donc une lignée indépendante et une famille distincte, les Protolitonotidae (nouvelle famille) ».
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette famille a été créée par Wu et ses collaborateurs sur la base de critères à la fois génétiques et morphologiques. Cela leur a permis de faire une révision de l'ordre des Pleurostomatida, basée, sur le plan morphologique, sur la structure des cinéties[note 1] et des sutures ciliaires[note 2].
-Ils ont ainsi introduit quatre termes pour caractériser les Protolitonotidae par rapport à deux familles voisines[1] :
+Ils ont ainsi introduit quatre termes pour caractériser les Protolitonotidae par rapport à deux familles voisines :
 cinétie complète avec la présence de cils à droite de la cellule sur toute la longueur du corps, caractérisant la famille des Protolitonotidae ;
 semi-suture ciliaire formée par le raccourcissement antérieur de certaines cinéties somatiques donnant une suture incomplète ; trait également caractéristique de la famille des Protolitonotidae ;
 suture simple ciliaire formée par le raccourcissement de certaines cinéties somatiques, donnant une suture dans la partie antérieure du corps ; trait caractéristique de la famille des Amphileptidae ;
@@ -577,12 +593,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 janvier 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 janvier 2023) :
 Paralitonotus Zhang, Zhao, Chi, Warren, Pan &amp; Song, 2022
 Paralitonotus foissneri Zhang, Zhao, Chi, Warren, Pan &amp; Song, 2022
-Selon le NCBI  (4 janvier 2023)[3] et l'EOL                          (4 janvier 2023)[4] :
+Selon le NCBI  (4 janvier 2023) et l'EOL                          (4 janvier 2023) :
 Apolitonotus
 Apolitonotus lynni
 Protolitonotus genre type
@@ -616,9 +634,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Protolitonotidae Wu et al., 2017[2],[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Protolitonotidae Wu et al., 2017,.
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Lei Wu, Xiaoxiao Jiao, Zhuo Shen, Zhenzhen Yi, Jiqiu Li, Alan Warren et Xiaofeng Lin, « New taxa refresh the phylogeny and classification of pleurostomatid ciliates (Ciliophora, Litostomatea) », Zoologica Scripta, Wiley-Blackwell, vol. 46, no 2,‎ mars 2017, p. 245-253 (ISSN 0300-3256 et 1463-6409, DOI 10.1111/ZSC.12193, lire en ligne)</t>
         </is>
